--- a/Testing_Data/2021_12_Festo/Results_table.xlsx
+++ b/Testing_Data/2021_12_Festo/Results_table.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2021_12_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8717A020-D8A8-4593-B635-ABBDEDA9DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC04CE-5906-493A-A079-63F72D5CE049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-27630" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest1" sheetId="1" r:id="rId1"/>
     <sheet name="FlxTest1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Flex Test 3</t>
   </si>
@@ -79,6 +78,12 @@
   </si>
   <si>
     <t>ICR to muscle</t>
+  </si>
+  <si>
+    <t>Load cell angle (real ICR)</t>
+  </si>
+  <si>
+    <t>Load cell angle (tibia)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -272,6 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -890,16 +896,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
@@ -993,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -1013,175 +1019,195 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>418</v>
+        <v>16</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>418</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="D12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="E12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="F12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="G12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="H12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="I12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="J12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="K12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="L12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="M12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="N12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="O12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="P12" s="16">
-        <v>249.71</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>249.71</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="D13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="E13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="F13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="G13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="H13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="I13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="J13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="K13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="L13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="M13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="N13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="O13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="P13" s="16">
+        <v>249.71</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C14" s="16">
         <v>72</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <f>C6*COS((C8*3.14/180))*C12/1000</f>
-        <v>6.7457530738617484</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:Q15" si="0">D6*COS((D8*3.14/180))*D12/1000</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="C16">
+        <f>C6*COS(RADIANS(C8+3.89))*C13/1000</f>
+        <v>6.6820746182930346</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:Q16" si="0">D6*COS((D8*3.14/180))*D13/1000</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
